--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606990.2123370066</v>
+        <v>576361.3121643836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5477185.456223348</v>
+        <v>5477185.456223349</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F11" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9.991949277019346</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>89.66547645067541</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1622,10 +1622,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.40726547353833</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>218.2545356023573</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>85.22343841471893</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>164.830471408469</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,76 +2236,76 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>98.92381696846063</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>147.6606480049634</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>29.79900896488246</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>65.6288982532143</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>190.3453970742849</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>45.32733496102416</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.63502845560132</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,31 +3545,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,28 +3740,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H41" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.88882306452232</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>185.6562165419322</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>182.8040185389277</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>358.0940480307835</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>114.6452713866835</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4607,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
         <v>31.35113235729608</v>
@@ -4832,22 +4832,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="F12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>353.3011080883284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>109.8523314442283</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5215,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5258,19 +5258,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,7 +5361,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
         <v>486.8488635328713</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>928.2922408909005</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5455,13 +5455,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,43 +5601,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5695,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V20" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W20" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X20" t="n">
-        <v>31.35113235729608</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.35113235729608</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>413.5372890039083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>264.602879342657</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>105.3654243372015</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200709</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564599</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564599</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564599</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8760884571613</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C24" t="n">
-        <v>205.7769902389545</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D24" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="25">
@@ -6178,7 +6178,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6230,7 +6230,7 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L26" t="n">
-        <v>302.3720006057936</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M26" t="n">
         <v>519.3476278686978</v>
@@ -6254,22 +6254,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>761.8705608694022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,7 +6315,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>761.8705608694022</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6473,40 +6473,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.5167634983089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>710.5167634983089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564955</v>
+        <v>482.1535401227612</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564955</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6552,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217535</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.057155510636</v>
+        <v>897.765339093248</v>
       </c>
       <c r="T30" t="n">
-        <v>964.057155510636</v>
+        <v>897.765339093248</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470251</v>
+        <v>897.765339093248</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152824</v>
+        <v>897.765339093248</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711824</v>
+        <v>897.765339093248</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564955</v>
+        <v>689.9138388877152</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564955</v>
+        <v>482.1535401227612</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280782</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203004</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757367</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>877.0247885897326</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203653</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203653</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
         <v>518.2486856454962</v>
@@ -6731,19 +6731,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
         <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>373.9923272590225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>225.0579175977713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>65.82046259231578</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
         <v>20.03527576299844</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>363.8224689997521</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>204.5850139942966</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>58.05045602118159</v>
       </c>
       <c r="G36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7357,7 +7357,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>315.6850394389064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F41" t="n">
-        <v>72.23626279480629</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>562.4161926976942</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="V42" t="n">
-        <v>327.2640844659515</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W42" t="n">
-        <v>83.81530782185143</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X42" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.81530782185143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,13 +7734,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,10 +9009,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133071</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493022</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221034</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>254.830481723707</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23072,13 +23072,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>313.7674402315048</v>
       </c>
     </row>
     <row r="9">
@@ -23100,22 +23100,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F11" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>135.0772631163645</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>116.1075087528021</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,10 +23498,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23510,10 +23510,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.7505686791048</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23695,16 +23695,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,16 +23780,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>276.0301037921574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>33.09111730547923</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>59.84577397866495</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,13 +24096,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>40.94251379500852</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>240.5509851473065</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>121.2058486888432</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,13 +24339,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>25.04785098335236</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24692,16 +24692,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>117.6460565997563</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>106.0542728506235</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24880,10 +24880,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
@@ -24971,7 +24971,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>99.74187743235971</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,10 +25093,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,16 +25236,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>99.70848870760932</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25287,10 +25287,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>98.39612368925762</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,31 +25433,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,19 +25518,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>132.3061701185453</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,28 +25628,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H41" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.644360585345</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>40.28516553904262</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>157.4457150350269</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25944,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>49.9965686104976</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044414</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17684.06991269912</v>
+        <v>-21344.88553779098</v>
       </c>
       <c r="C6" t="n">
-        <v>63085.36161884861</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="D6" t="n">
-        <v>63085.36161884858</v>
+        <v>59424.54599375678</v>
       </c>
       <c r="E6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="F6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="G6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="H6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="I6" t="n">
-        <v>96712.96161884864</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="J6" t="n">
-        <v>33653.01901974236</v>
+        <v>29992.20339465053</v>
       </c>
       <c r="K6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375683</v>
       </c>
       <c r="L6" t="n">
-        <v>96712.96161884861</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="M6" t="n">
-        <v>96712.96161884861</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="N6" t="n">
-        <v>96712.96161884861</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>96712.96161884858</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="P6" t="n">
-        <v>96712.96161884861</v>
+        <v>93052.14599375676</v>
       </c>
     </row>
   </sheetData>
@@ -26805,16 +26805,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>241.0142888776591</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659689</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
